--- a/PPM30_TestData_Assign Resource to Project_21B.xlsx
+++ b/PPM30_TestData_Assign Resource to Project_21B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED35E22D-340F-4D4C-B022-D95DEB78F1B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF39245-AC41-4D86-9745-0EB7C3C71D91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{7B660B18-6AD7-45EE-A5DE-8973734DB4E0}"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{7B660B18-6AD7-45EE-A5DE-8973734DB4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>URL</t>
   </si>
@@ -119,15 +119,6 @@
   </si>
   <si>
     <t>ProjectRole</t>
-  </si>
-  <si>
-    <t>https://edrx.fa.us2.oraclecloud.com</t>
-  </si>
-  <si>
-    <t>IBM_IMPLEMENTATION_USER</t>
-  </si>
-  <si>
-    <t>Oracle1234</t>
   </si>
   <si>
     <t>Hagan,</t>
@@ -631,48 +622,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9EF5B2-6E6B-41EA-8C9B-9D41C8BB58FC}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="O2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.26953125" customWidth="1"/>
-    <col min="10" max="10" width="22.54296875" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" customWidth="1"/>
-    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.21875" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>3</v>
@@ -699,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -725,29 +716,21 @@
         <v>120</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" t="s">
-        <v>10</v>
-      </c>
+      <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I3">
         <f>[1]Input!$F$2</f>
         <v>30</v>
@@ -756,16 +739,13 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L7" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" display="https://edrx.fa.us2.oraclecloud.com/" xr:uid="{AB3F26A8-AA4B-4DA7-ACCF-81209A9EC778}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -775,7 +755,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
